--- a/Excel2Json/Test/ship_level.xlsx
+++ b/Excel2Json/Test/ship_level.xlsx
@@ -27,10 +27,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vector&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,6 +579,14 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[150]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt;;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1043,7 +1043,7 @@
     <col min="3" max="3" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.375" style="2" customWidth="1"/>
     <col min="9" max="16" width="9" style="2"/>
@@ -1054,22 +1054,22 @@
   <sheetData>
     <row r="1" spans="1:19" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1153,22 +1153,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1189,63 +1189,63 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="11"/>
       <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="10"/>
       <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="10"/>
       <c r="Q7" s="15"/>
@@ -1255,16 +1255,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7">
         <v>16</v>
@@ -1288,16 +1288,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7">
         <v>17</v>
@@ -1321,16 +1321,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="10"/>
@@ -1352,16 +1352,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="10"/>
@@ -1383,16 +1383,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="10"/>
@@ -1414,16 +1414,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -1445,16 +1445,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="10"/>
@@ -1476,13 +1476,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" s="7">
         <v>15</v>
@@ -1507,16 +1507,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1533,16 +1533,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1559,16 +1559,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1585,16 +1585,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R19" s="7"/>
     </row>
@@ -1603,16 +1603,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1620,16 +1620,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1637,16 +1637,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1654,16 +1654,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1671,16 +1671,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1688,16 +1688,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1705,16 +1705,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -1722,16 +1722,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -1739,16 +1739,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -1756,16 +1756,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -1773,16 +1773,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -1790,16 +1790,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -1807,16 +1807,16 @@
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1824,16 +1824,16 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1841,16 +1841,16 @@
         <v>30</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1858,16 +1858,16 @@
         <v>31</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1875,16 +1875,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1892,16 +1892,16 @@
         <v>33</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1909,16 +1909,16 @@
         <v>34</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1926,16 +1926,16 @@
         <v>35</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1943,16 +1943,16 @@
         <v>36</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1960,16 +1960,16 @@
         <v>37</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1977,16 +1977,16 @@
         <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1994,16 +1994,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -2011,16 +2011,16 @@
         <v>40</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -2028,16 +2028,16 @@
         <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -2045,16 +2045,16 @@
         <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2062,16 +2062,16 @@
         <v>43</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -2079,16 +2079,16 @@
         <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -2096,16 +2096,16 @@
         <v>45</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2113,16 +2113,16 @@
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2130,16 +2130,16 @@
         <v>47</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2147,16 +2147,16 @@
         <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2164,16 +2164,16 @@
         <v>49</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2181,16 +2181,16 @@
         <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2198,16 +2198,16 @@
         <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2215,16 +2215,16 @@
         <v>52</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2232,16 +2232,16 @@
         <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -2249,16 +2249,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2266,16 +2266,16 @@
         <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2283,16 +2283,16 @@
         <v>56</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -2300,16 +2300,16 @@
         <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -2317,16 +2317,16 @@
         <v>58</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -2334,16 +2334,16 @@
         <v>59</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -2351,16 +2351,16 @@
         <v>60</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2368,16 +2368,16 @@
         <v>61</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2385,16 +2385,16 @@
         <v>62</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -2402,16 +2402,16 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2419,16 +2419,16 @@
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2436,16 +2436,16 @@
         <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2453,16 +2453,16 @@
         <v>66</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2470,16 +2470,16 @@
         <v>67</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2487,16 +2487,16 @@
         <v>68</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2504,16 +2504,16 @@
         <v>69</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2521,16 +2521,16 @@
         <v>70</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2538,16 +2538,16 @@
         <v>71</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2555,16 +2555,16 @@
         <v>72</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2572,16 +2572,16 @@
         <v>73</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2589,16 +2589,16 @@
         <v>74</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -2606,16 +2606,16 @@
         <v>75</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2623,16 +2623,16 @@
         <v>76</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2640,16 +2640,16 @@
         <v>77</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2657,16 +2657,16 @@
         <v>78</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -2674,16 +2674,16 @@
         <v>79</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2691,16 +2691,16 @@
         <v>80</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -2708,16 +2708,16 @@
         <v>81</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -2725,16 +2725,16 @@
         <v>82</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2742,16 +2742,16 @@
         <v>83</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2759,16 +2759,16 @@
         <v>84</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2776,16 +2776,16 @@
         <v>85</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2793,16 +2793,16 @@
         <v>86</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2810,16 +2810,16 @@
         <v>87</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2827,16 +2827,16 @@
         <v>88</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2844,16 +2844,16 @@
         <v>89</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2861,16 +2861,16 @@
         <v>90</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2878,16 +2878,16 @@
         <v>91</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2895,16 +2895,16 @@
         <v>92</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2912,16 +2912,16 @@
         <v>93</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2929,16 +2929,16 @@
         <v>94</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2946,16 +2946,16 @@
         <v>95</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2963,16 +2963,16 @@
         <v>96</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -2980,16 +2980,16 @@
         <v>97</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2997,16 +2997,16 @@
         <v>98</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -3014,16 +3014,16 @@
         <v>99</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -3031,16 +3031,16 @@
         <v>100</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
